--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>35.38781027574399</v>
+        <v>86.8672813331911</v>
       </c>
       <c r="R2">
-        <v>318.490292481696</v>
+        <v>781.80553199872</v>
       </c>
       <c r="S2">
-        <v>0.002034024798369632</v>
+        <v>0.003453243192179357</v>
       </c>
       <c r="T2">
-        <v>0.002034024798369632</v>
+        <v>0.003453243192179356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>21.90869701156266</v>
+        <v>27.33104550519467</v>
       </c>
       <c r="R3">
-        <v>197.178273104064</v>
+        <v>245.979409546752</v>
       </c>
       <c r="S3">
-        <v>0.001259270711418671</v>
+        <v>0.001086493618511528</v>
       </c>
       <c r="T3">
-        <v>0.001259270711418671</v>
+        <v>0.001086493618511528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>14.75076531109333</v>
+        <v>15.80321895978667</v>
       </c>
       <c r="R4">
-        <v>132.75688779984</v>
+        <v>142.22897063808</v>
       </c>
       <c r="S4">
-        <v>0.0008478462556429987</v>
+        <v>0.0006282268473222207</v>
       </c>
       <c r="T4">
-        <v>0.0008478462556429987</v>
+        <v>0.0006282268473222206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.7090821474577776</v>
+        <v>0.4699012782791112</v>
       </c>
       <c r="R5">
-        <v>6.381739327119999</v>
+        <v>4.229111504512</v>
       </c>
       <c r="S5">
-        <v>4.07567086172299E-05</v>
+        <v>1.868002964188206E-05</v>
       </c>
       <c r="T5">
-        <v>4.07567086172299E-05</v>
+        <v>1.868002964188206E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>8373.173333896137</v>
+        <v>16476.04332092353</v>
       </c>
       <c r="R6">
-        <v>75358.56000506523</v>
+        <v>148284.3898883118</v>
       </c>
       <c r="S6">
-        <v>0.4812742599636309</v>
+        <v>0.6549736973326</v>
       </c>
       <c r="T6">
-        <v>0.481274259963631</v>
+        <v>0.6549736973326</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>5183.856140524357</v>
@@ -883,10 +883,10 @@
         <v>46654.70526471922</v>
       </c>
       <c r="S7">
-        <v>0.2979583042535557</v>
+        <v>0.2060743199483907</v>
       </c>
       <c r="T7">
-        <v>0.2979583042535557</v>
+        <v>0.2060743199483907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>3490.205067649108</v>
+        <v>2997.383090565294</v>
       </c>
       <c r="R8">
-        <v>31411.84560884197</v>
+        <v>26976.44781508764</v>
       </c>
       <c r="S8">
-        <v>0.2006104249931409</v>
+        <v>0.1191552514708806</v>
       </c>
       <c r="T8">
-        <v>0.2006104249931409</v>
+        <v>0.1191552514708806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>167.7772001819756</v>
+        <v>89.1257755355329</v>
       </c>
       <c r="R9">
-        <v>1509.99480163778</v>
+        <v>802.131979819796</v>
       </c>
       <c r="S9">
-        <v>0.009643518011202785</v>
+        <v>0.00354302532429074</v>
       </c>
       <c r="T9">
-        <v>0.009643518011202785</v>
+        <v>0.00354302532429074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>48.88721757064399</v>
+        <v>175.6329360745244</v>
       </c>
       <c r="R10">
-        <v>439.9849581357959</v>
+        <v>1580.69642467072</v>
       </c>
       <c r="S10">
-        <v>0.002809945348049396</v>
+        <v>0.006981952600720851</v>
       </c>
       <c r="T10">
-        <v>0.002809945348049397</v>
+        <v>0.006981952600720851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>30.26621961482933</v>
+        <v>55.25937607799466</v>
       </c>
       <c r="R11">
-        <v>272.395976533464</v>
+        <v>497.334384701952</v>
       </c>
       <c r="S11">
-        <v>0.001739645396812277</v>
+        <v>0.002196731166404098</v>
       </c>
       <c r="T11">
-        <v>0.001739645396812277</v>
+        <v>0.002196731166404098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>20.37774780292667</v>
+        <v>31.95179707178666</v>
       </c>
       <c r="R12">
-        <v>183.39973022634</v>
+        <v>287.56617364608</v>
       </c>
       <c r="S12">
-        <v>0.001171274629402135</v>
+        <v>0.001270182789453603</v>
       </c>
       <c r="T12">
-        <v>0.001171274629402135</v>
+        <v>0.001270182789453603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>0.9795761011522222</v>
+        <v>0.9500716484124444</v>
       </c>
       <c r="R13">
-        <v>8.81618491037</v>
+        <v>8.550644835711999</v>
       </c>
       <c r="S13">
-        <v>5.63041924919433E-05</v>
+        <v>3.776828745657223E-05</v>
       </c>
       <c r="T13">
-        <v>5.63041924919433E-05</v>
+        <v>3.776828745657223E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>4.69161973932</v>
+        <v>9.721151596975554</v>
       </c>
       <c r="R14">
-        <v>42.22457765388</v>
+        <v>87.49036437277999</v>
       </c>
       <c r="S14">
-        <v>0.0002696654814168695</v>
+        <v>0.0003864458523070267</v>
       </c>
       <c r="T14">
-        <v>0.0002696654814168696</v>
+        <v>0.0003864458523070267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>2.90459552488</v>
+        <v>3.058565118905333</v>
       </c>
       <c r="R15">
-        <v>26.14135972392</v>
+        <v>27.527086070148</v>
       </c>
       <c r="S15">
-        <v>0.0001669506895398084</v>
+        <v>0.0001215874263888291</v>
       </c>
       <c r="T15">
-        <v>0.0001669506895398084</v>
+        <v>0.0001215874263888291</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>1.9556163878</v>
+        <v>1.768508060463333</v>
       </c>
       <c r="R16">
-        <v>17.6005474902</v>
+        <v>15.91657254417</v>
       </c>
       <c r="S16">
-        <v>0.0001124051530142215</v>
+        <v>7.030366700075218E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001124051530142215</v>
+        <v>7.030366700075216E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.09400818456666667</v>
+        <v>0.05258575486255555</v>
       </c>
       <c r="R17">
-        <v>0.8460736611000002</v>
+        <v>0.473271793763</v>
       </c>
       <c r="S17">
-        <v>5.403413694386582E-06</v>
+        <v>2.090446451158225E-06</v>
       </c>
       <c r="T17">
-        <v>5.403413694386582E-06</v>
+        <v>2.090446451158224E-06</v>
       </c>
     </row>
   </sheetData>
